--- a/Data_preparation/datasets/final_data/SYNOPSYS_INC.xlsx
+++ b/Data_preparation/datasets/final_data/SYNOPSYS_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,111 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -757,22 +652,22 @@
         <v>42035</v>
       </c>
       <c r="D2">
-        <v>45.94428254794989</v>
+        <v>43.02000045776367</v>
       </c>
       <c r="E2">
-        <v>53.31124877929688</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="F2">
-        <v>53.35536055254345</v>
+        <v>47.36999893188477</v>
       </c>
       <c r="G2">
-        <v>45.77517806828758</v>
+        <v>42.20000076293945</v>
       </c>
       <c r="H2">
-        <v>1079000000</v>
+        <v>185748673</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>6581912028</v>
@@ -885,22 +780,22 @@
         <v>42124</v>
       </c>
       <c r="D3">
-        <v>12.74488792780431</v>
+        <v>47.09000015258789</v>
       </c>
       <c r="E3">
-        <v>12.64545917510986</v>
+        <v>49.88999938964844</v>
       </c>
       <c r="F3">
-        <v>13.14260035252423</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="G3">
-        <v>11.79580038219858</v>
+        <v>46.43999862670898</v>
       </c>
       <c r="H3">
-        <v>862100000</v>
+        <v>185748673</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>7204824667</v>
@@ -1013,22 +908,22 @@
         <v>42216</v>
       </c>
       <c r="D4">
-        <v>80.5</v>
+        <v>50.72000122070312</v>
       </c>
       <c r="E4">
-        <v>70.95999908447266</v>
+        <v>46.93000030517578</v>
       </c>
       <c r="F4">
-        <v>80.95999908447266</v>
+        <v>52.65000152587891</v>
       </c>
       <c r="G4">
-        <v>64.29000091552734</v>
+        <v>43.45999908447266</v>
       </c>
       <c r="H4">
-        <v>207519000</v>
+        <v>185748673</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>7884613929</v>
@@ -1141,22 +1036,22 @@
         <v>42308</v>
       </c>
       <c r="D5">
-        <v>24.30973052978516</v>
+        <v>50.09000015258789</v>
       </c>
       <c r="E5">
-        <v>23.86653137207031</v>
+        <v>50.08000183105469</v>
       </c>
       <c r="F5">
-        <v>25.31838989257812</v>
+        <v>52.77999877929688</v>
       </c>
       <c r="G5">
-        <v>22.66938400268555</v>
+        <v>47.72999954223633</v>
       </c>
       <c r="H5">
-        <v>60308678</v>
+        <v>185748673</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>7794251402</v>
@@ -1269,22 +1164,22 @@
         <v>42400</v>
       </c>
       <c r="D6">
-        <v>21.77208002677406</v>
+        <v>42.61999893188477</v>
       </c>
       <c r="E6">
-        <v>21.82173156738281</v>
+        <v>44.75</v>
       </c>
       <c r="F6">
-        <v>22.31824352975136</v>
+        <v>46.40000152587891</v>
       </c>
       <c r="G6">
-        <v>20.89641115827674</v>
+        <v>40.36000061035156</v>
       </c>
       <c r="H6">
-        <v>14840390000</v>
+        <v>185748673</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>6497327866</v>
@@ -1397,22 +1292,22 @@
         <v>42490</v>
       </c>
       <c r="D7">
-        <v>20.13999938964844</v>
+        <v>47.52000045776367</v>
       </c>
       <c r="E7">
-        <v>14.52000045776367</v>
+        <v>51.66999816894531</v>
       </c>
       <c r="F7">
-        <v>20.25</v>
+        <v>51.9900016784668</v>
       </c>
       <c r="G7">
-        <v>12.52999973297119</v>
+        <v>46.68000030517578</v>
       </c>
       <c r="H7">
-        <v>263895614</v>
+        <v>185748673</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>7200602624</v>
@@ -1525,22 +1420,22 @@
         <v>42582</v>
       </c>
       <c r="D8">
-        <v>67.30164545273598</v>
+        <v>54.31999969482422</v>
       </c>
       <c r="E8">
-        <v>67.94705963134766</v>
+        <v>59.29000091552734</v>
       </c>
       <c r="F8">
-        <v>68.20522681790243</v>
+        <v>59.59000015258789</v>
       </c>
       <c r="G8">
-        <v>66.35835305168469</v>
+        <v>53.52999877929688</v>
       </c>
       <c r="H8">
-        <v>61741703</v>
+        <v>185748673</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>8222911000</v>
@@ -1653,22 +1548,22 @@
         <v>42674</v>
       </c>
       <c r="D9">
-        <v>26.08935555313321</v>
+        <v>59.25</v>
       </c>
       <c r="E9">
-        <v>32.42730331420898</v>
+        <v>60.47999954223633</v>
       </c>
       <c r="F9">
-        <v>33.05337884225837</v>
+        <v>62</v>
       </c>
       <c r="G9">
-        <v>25.64338327185894</v>
+        <v>57.54999923706055</v>
       </c>
       <c r="H9">
-        <v>123248686</v>
+        <v>185748673</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>8975908736</v>
@@ -1909,22 +1804,22 @@
         <v>42855</v>
       </c>
       <c r="D11">
-        <v>105.2824839738816</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="E11">
-        <v>100.4015350341797</v>
+        <v>74.87000274658203</v>
       </c>
       <c r="F11">
-        <v>105.525874177026</v>
+        <v>75.33999633789062</v>
       </c>
       <c r="G11">
-        <v>98.53335616363826</v>
+        <v>70.55000305175781</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>185748673</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>11091679016</v>
@@ -2037,22 +1932,22 @@
         <v>42947</v>
       </c>
       <c r="D12">
-        <v>28.84000015258789</v>
+        <v>76.90000152587891</v>
       </c>
       <c r="E12">
-        <v>26.34000015258789</v>
+        <v>80.41999816894531</v>
       </c>
       <c r="F12">
-        <v>29.97999954223633</v>
+        <v>80.44999694824219</v>
       </c>
       <c r="G12">
-        <v>24.48999977111816</v>
+        <v>75.52999877929688</v>
       </c>
       <c r="H12">
-        <v>48253392</v>
+        <v>185748673</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>11509284020</v>
@@ -2165,22 +2060,22 @@
         <v>43039</v>
       </c>
       <c r="D13">
-        <v>27.76754404304676</v>
+        <v>87.06999969482422</v>
       </c>
       <c r="E13">
-        <v>29.36128807067871</v>
+        <v>90.37999725341795</v>
       </c>
       <c r="F13">
-        <v>29.5525363117698</v>
+        <v>94.8000030517578</v>
       </c>
       <c r="G13">
-        <v>27.35772563911961</v>
+        <v>85.68000030517578</v>
       </c>
       <c r="H13">
-        <v>174270076</v>
+        <v>185748673</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>12999427803</v>
@@ -2281,22 +2176,22 @@
         <v>43131</v>
       </c>
       <c r="D14">
-        <v>40.04395874521859</v>
+        <v>91.88999938964844</v>
       </c>
       <c r="E14">
-        <v>41.37875747680664</v>
+        <v>84.66999816894531</v>
       </c>
       <c r="F14">
-        <v>42.73034651222623</v>
+        <v>92.94000244140624</v>
       </c>
       <c r="G14">
-        <v>35.29241164327789</v>
+        <v>82.09999847412109</v>
       </c>
       <c r="H14">
-        <v>4757218036</v>
+        <v>185748673</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>13772372238</v>
@@ -2397,22 +2292,22 @@
         <v>43220</v>
       </c>
       <c r="D15">
-        <v>29.79999923706055</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="E15">
-        <v>26.26000022888184</v>
+        <v>88.06999969482422</v>
       </c>
       <c r="F15">
-        <v>30.10000038146973</v>
+        <v>91.63999938964844</v>
       </c>
       <c r="G15">
-        <v>24.76000022888184</v>
+        <v>85.13999938964844</v>
       </c>
       <c r="H15">
-        <v>158300823</v>
+        <v>185748673</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>12717484498</v>
@@ -2525,22 +2420,22 @@
         <v>43312</v>
       </c>
       <c r="D16">
-        <v>27.97210020819945</v>
+        <v>89.23000335693359</v>
       </c>
       <c r="E16">
-        <v>28.09128570556641</v>
+        <v>102.1399993896484</v>
       </c>
       <c r="F16">
-        <v>28.76056376347318</v>
+        <v>102.9100036621094</v>
       </c>
       <c r="G16">
-        <v>26.88108696871215</v>
+        <v>89.01999664306641</v>
       </c>
       <c r="H16">
-        <v>174270076</v>
+        <v>185748673</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>13326045145</v>
@@ -2653,22 +2548,22 @@
         <v>43404</v>
       </c>
       <c r="D17">
-        <v>193.5399932861328</v>
+        <v>89.55000305175781</v>
       </c>
       <c r="E17">
-        <v>198.6300048828125</v>
+        <v>91.94000244140624</v>
       </c>
       <c r="F17">
-        <v>201.3699951171875</v>
+        <v>94.44000244140624</v>
       </c>
       <c r="G17">
-        <v>174.6600036621094</v>
+        <v>82.76000213623047</v>
       </c>
       <c r="H17">
-        <v>24003656</v>
+        <v>185748673</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>13303093220</v>
@@ -2769,22 +2664,22 @@
         <v>43496</v>
       </c>
       <c r="D18">
-        <v>159.5487626816853</v>
+        <v>93.51000213623048</v>
       </c>
       <c r="E18">
-        <v>173.8226776123047</v>
+        <v>101.6800003051758</v>
       </c>
       <c r="F18">
-        <v>175.6270923461549</v>
+        <v>104.1999969482422</v>
       </c>
       <c r="G18">
-        <v>155.512558863845</v>
+        <v>92.90000152587891</v>
       </c>
       <c r="H18">
-        <v>2319000000</v>
+        <v>185748673</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>13957226370</v>
@@ -2885,22 +2780,22 @@
         <v>43585</v>
       </c>
       <c r="D19">
-        <v>2.247999906539917</v>
+        <v>121.3199996948242</v>
       </c>
       <c r="E19">
-        <v>1.899999976158142</v>
+        <v>116.4400024414062</v>
       </c>
       <c r="F19">
-        <v>2.303999900817871</v>
+        <v>124.120002746582</v>
       </c>
       <c r="G19">
-        <v>1.820999979972839</v>
+        <v>113.9400024414062</v>
       </c>
       <c r="H19">
-        <v>594273308</v>
+        <v>185748673</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>18122748770</v>
@@ -3013,22 +2908,22 @@
         <v>43677</v>
       </c>
       <c r="D20">
-        <v>60.4644694886448</v>
+        <v>133.3500061035156</v>
       </c>
       <c r="E20">
-        <v>59.11875152587891</v>
+        <v>141.8099975585938</v>
       </c>
       <c r="F20">
-        <v>61.39157352261505</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="G20">
-        <v>56.74611594136378</v>
+        <v>123.8499984741211</v>
       </c>
       <c r="H20">
-        <v>5817000000</v>
+        <v>185748673</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>19900606507</v>
@@ -3141,22 +3036,22 @@
         <v>43769</v>
       </c>
       <c r="D21">
-        <v>2.049999952316284</v>
+        <v>136.3999938964844</v>
       </c>
       <c r="E21">
-        <v>2.130000114440918</v>
+        <v>141.0399932861328</v>
       </c>
       <c r="F21">
-        <v>2.249000072479248</v>
+        <v>143</v>
       </c>
       <c r="G21">
-        <v>2.000999927520752</v>
+        <v>133.8399963378906</v>
       </c>
       <c r="H21">
-        <v>594273308</v>
+        <v>185748673</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>20401404050</v>
@@ -3269,22 +3164,22 @@
         <v>43861</v>
       </c>
       <c r="D22">
-        <v>23.6926327642264</v>
+        <v>148.7700042724609</v>
       </c>
       <c r="E22">
-        <v>20.75907325744629</v>
+        <v>137.9299926757812</v>
       </c>
       <c r="F22">
-        <v>25.38844422011294</v>
+        <v>166.8699951171875</v>
       </c>
       <c r="G22">
-        <v>19.00478605726309</v>
+        <v>131.5099945068359</v>
       </c>
       <c r="H22">
-        <v>862100000</v>
+        <v>185748673</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>22205399706</v>
@@ -3397,22 +3292,22 @@
         <v>43951</v>
       </c>
       <c r="D23">
-        <v>29.1299991607666</v>
+        <v>153.6799926757812</v>
       </c>
       <c r="E23">
-        <v>36.31999969482422</v>
+        <v>180.9100036621093</v>
       </c>
       <c r="F23">
-        <v>36.45000076293945</v>
+        <v>181.9700012207031</v>
       </c>
       <c r="G23">
-        <v>26.57999992370605</v>
+        <v>147.9799957275391</v>
       </c>
       <c r="H23">
-        <v>2085418676</v>
+        <v>185748673</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>23603688237</v>
@@ -3525,22 +3420,22 @@
         <v>44043</v>
       </c>
       <c r="D24">
-        <v>49.18523125628565</v>
+        <v>200.7400054931641</v>
       </c>
       <c r="E24">
-        <v>44.42190551757812</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="F24">
-        <v>50.24917073284447</v>
+        <v>222.0299987792969</v>
       </c>
       <c r="G24">
-        <v>41.23985008431981</v>
+        <v>190.5</v>
       </c>
       <c r="H24">
-        <v>1122466035</v>
+        <v>185748673</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>30040126209</v>
@@ -3653,22 +3548,22 @@
         <v>44135</v>
       </c>
       <c r="D25">
-        <v>478.8699951171875</v>
+        <v>215.5200042724609</v>
       </c>
       <c r="E25">
-        <v>490.7000122070313</v>
+        <v>227.5</v>
       </c>
       <c r="F25">
-        <v>518.72998046875</v>
+        <v>246.6900024414062</v>
       </c>
       <c r="G25">
-        <v>463.4100036621094</v>
+        <v>211.1999969482422</v>
       </c>
       <c r="H25">
-        <v>424926346</v>
+        <v>185748673</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>32455754810</v>
@@ -3781,22 +3676,22 @@
         <v>44227</v>
       </c>
       <c r="D26">
-        <v>239.3500061035156</v>
+        <v>259.9599914550781</v>
       </c>
       <c r="E26">
-        <v>283.4599914550781</v>
+        <v>245.2100067138672</v>
       </c>
       <c r="F26">
-        <v>354.8200073242188</v>
+        <v>300.9100036621094</v>
       </c>
       <c r="G26">
-        <v>235.8800048828125</v>
+        <v>242.1300048828125</v>
       </c>
       <c r="H26">
-        <v>278228356</v>
+        <v>185748673</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>39092151359</v>
@@ -3909,22 +3804,22 @@
         <v>44316</v>
       </c>
       <c r="D27">
-        <v>55.13000106811523</v>
+        <v>248.9100036621093</v>
       </c>
       <c r="E27">
-        <v>54.95000076293945</v>
+        <v>254.3399963378907</v>
       </c>
       <c r="F27">
-        <v>56.47000122070312</v>
+        <v>259.1300048828125</v>
       </c>
       <c r="G27">
-        <v>47.61999893188477</v>
+        <v>225.0200042724609</v>
       </c>
       <c r="H27">
-        <v>150594095</v>
+        <v>185748673</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>37645313404</v>
@@ -4037,22 +3932,22 @@
         <v>44408</v>
       </c>
       <c r="D28">
-        <v>82.94634035907019</v>
+        <v>289.8200073242188</v>
       </c>
       <c r="E28">
-        <v>84.26999664306641</v>
+        <v>332.239990234375</v>
       </c>
       <c r="F28">
-        <v>86.77550126072052</v>
+        <v>335.010009765625</v>
       </c>
       <c r="G28">
-        <v>82.34123106917598</v>
+        <v>286.010009765625</v>
       </c>
       <c r="H28">
-        <v>2850792605</v>
+        <v>185748673</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>43940046603</v>
@@ -4165,22 +4060,22 @@
         <v>44500</v>
       </c>
       <c r="D29">
-        <v>80.87172081815871</v>
+        <v>333.4500122070312</v>
       </c>
       <c r="E29">
-        <v>78.30628967285156</v>
+        <v>341</v>
       </c>
       <c r="F29">
-        <v>84.50996293035827</v>
+        <v>361.2200012207031</v>
       </c>
       <c r="G29">
-        <v>78.21299557369527</v>
+        <v>328.2699890136719</v>
       </c>
       <c r="H29">
-        <v>123248686</v>
+        <v>185748673</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>50810867578</v>
@@ -4293,22 +4188,22 @@
         <v>44592</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>311.8399963378906</v>
       </c>
       <c r="E30">
-        <v>153.5630035400391</v>
+        <v>312.3900146484375</v>
       </c>
       <c r="F30">
-        <v>163.8345031738281</v>
+        <v>324.5199890136719</v>
       </c>
       <c r="G30">
-        <v>138.3329925537109</v>
+        <v>275</v>
       </c>
       <c r="H30">
-        <v>10664912097</v>
+        <v>185748673</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>47642603328</v>
@@ -4421,22 +4316,22 @@
         <v>44681</v>
       </c>
       <c r="D31">
-        <v>150.5399932861328</v>
+        <v>286.5499877929688</v>
       </c>
       <c r="E31">
-        <v>153.7299957275391</v>
+        <v>319.2000122070312</v>
       </c>
       <c r="F31">
-        <v>158.7100067138672</v>
+        <v>324.5</v>
       </c>
       <c r="G31">
-        <v>132.3200073242188</v>
+        <v>255.0200042724609</v>
       </c>
       <c r="H31">
-        <v>272490000</v>
+        <v>185748673</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>43907181048</v>
@@ -4549,22 +4444,22 @@
         <v>44773</v>
       </c>
       <c r="D32">
-        <v>3.940000057220459</v>
+        <v>364.1700134277344</v>
       </c>
       <c r="E32">
-        <v>3.509999990463257</v>
+        <v>346.0199890136719</v>
       </c>
       <c r="F32">
-        <v>4.380000114440918</v>
+        <v>391.1700134277344</v>
       </c>
       <c r="G32">
-        <v>3.339999914169312</v>
+        <v>341.6199951171875</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>185748673</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>56216566508</v>
@@ -4677,22 +4572,22 @@
         <v>44865</v>
       </c>
       <c r="D33">
-        <v>83.23999786376953</v>
+        <v>297.4500122070312</v>
       </c>
       <c r="E33">
-        <v>75.77999877929688</v>
+        <v>339.5400085449219</v>
       </c>
       <c r="F33">
-        <v>86.87999725341797</v>
+        <v>340.6099853515625</v>
       </c>
       <c r="G33">
-        <v>66.44699859619141</v>
+        <v>269.8800048828125</v>
       </c>
       <c r="H33">
-        <v>323270704</v>
+        <v>185748673</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>44734213687</v>
@@ -4805,22 +4700,22 @@
         <v>44957</v>
       </c>
       <c r="D34">
-        <v>3.789999961853027</v>
+        <v>353.6700134277344</v>
       </c>
       <c r="E34">
-        <v>3.700000047683716</v>
+        <v>363.760009765625</v>
       </c>
       <c r="F34">
-        <v>4.099999904632568</v>
+        <v>379.760009765625</v>
       </c>
       <c r="G34">
-        <v>3.440000057220459</v>
+        <v>347.9700012207031</v>
       </c>
       <c r="H34">
-        <v>72969110</v>
+        <v>185748673</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>53917582378</v>
@@ -4933,22 +4828,22 @@
         <v>45046</v>
       </c>
       <c r="D35">
-        <v>80.47000122070312</v>
+        <v>370.760009765625</v>
       </c>
       <c r="E35">
-        <v>81.30999755859375</v>
+        <v>454.9599914550781</v>
       </c>
       <c r="F35">
-        <v>87.41999816894531</v>
+        <v>468.0299987792969</v>
       </c>
       <c r="G35">
-        <v>75.16000366210938</v>
+        <v>365.4599914550781</v>
       </c>
       <c r="H35">
-        <v>136895573</v>
+        <v>185748673</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>56552658704</v>
@@ -5061,22 +4956,22 @@
         <v>45138</v>
       </c>
       <c r="D36">
-        <v>572.4199829101562</v>
+        <v>448.1400146484375</v>
       </c>
       <c r="E36">
-        <v>546.52001953125</v>
+        <v>458.8900146484375</v>
       </c>
       <c r="F36">
-        <v>579.1199951171875</v>
+        <v>463.9700012207031</v>
       </c>
       <c r="G36">
-        <v>477.510009765625</v>
+        <v>418.510009765625</v>
       </c>
       <c r="H36">
-        <v>52693110</v>
+        <v>185748673</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>68745689660</v>
@@ -5189,22 +5084,22 @@
         <v>45230</v>
       </c>
       <c r="D37">
-        <v>204.0399932861328</v>
+        <v>470.7000122070313</v>
       </c>
       <c r="E37">
-        <v>240.0800018310547</v>
+        <v>543.22998046875</v>
       </c>
       <c r="F37">
-        <v>252.75</v>
+        <v>564.780029296875</v>
       </c>
       <c r="G37">
-        <v>197.8500061035156</v>
+        <v>468</v>
       </c>
       <c r="H37">
-        <v>3325150886</v>
+        <v>185748673</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>71394227052</v>
@@ -5317,22 +5212,22 @@
         <v>45322</v>
       </c>
       <c r="D38">
-        <v>354.4882078035527</v>
+        <v>534</v>
       </c>
       <c r="E38">
-        <v>364.9865112304687</v>
+        <v>573.72998046875</v>
       </c>
       <c r="F38">
-        <v>370.4596485847449</v>
+        <v>629.3800048828125</v>
       </c>
       <c r="G38">
-        <v>349.5896494174895</v>
+        <v>527.030029296875</v>
       </c>
       <c r="H38">
-        <v>622000000</v>
+        <v>185748673</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>81062201381</v>
@@ -5445,22 +5340,22 @@
         <v>45412</v>
       </c>
       <c r="D39">
-        <v>32.91999816894531</v>
+        <v>528.1699829101562</v>
       </c>
       <c r="E39">
-        <v>29.47999954223633</v>
+        <v>560.7999877929688</v>
       </c>
       <c r="F39">
-        <v>34.43000030517578</v>
+        <v>605.4500122070312</v>
       </c>
       <c r="G39">
-        <v>29.14999961853028</v>
+        <v>512.1199951171875</v>
       </c>
       <c r="H39">
-        <v>48253392</v>
+        <v>185748673</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>80938156477</v>
@@ -5573,22 +5468,22 @@
         <v>45504</v>
       </c>
       <c r="D40">
-        <v>65.3347813084503</v>
+        <v>556.0399780273438</v>
       </c>
       <c r="E40">
-        <v>75.98967742919922</v>
+        <v>519.5800170898438</v>
       </c>
       <c r="F40">
-        <v>78.74061759069839</v>
+        <v>585.6699829101562</v>
       </c>
       <c r="G40">
-        <v>53.01535875336031</v>
+        <v>474.5700073242188</v>
       </c>
       <c r="H40">
-        <v>862100000</v>
+        <v>185748673</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>85543609044</v>
@@ -5701,22 +5596,22 @@
         <v>45596</v>
       </c>
       <c r="D41">
-        <v>171.1399993896484</v>
+        <v>508.8299865722656</v>
       </c>
       <c r="E41">
-        <v>336.75</v>
+        <v>558.489990234375</v>
       </c>
       <c r="F41">
-        <v>344.7699890136719</v>
+        <v>574.6400146484375</v>
       </c>
       <c r="G41">
-        <v>158.3300018310547</v>
+        <v>508.8299865722656</v>
       </c>
       <c r="H41">
-        <v>307636373</v>
+        <v>185748673</v>
       </c>
       <c r="I41" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>78897555056</v>
@@ -5829,22 +5724,22 @@
         <v>45688</v>
       </c>
       <c r="D42">
-        <v>29.5</v>
+        <v>511.6900024414063</v>
       </c>
       <c r="E42">
-        <v>23.45000076293945</v>
+        <v>457.2799987792969</v>
       </c>
       <c r="F42">
-        <v>35.97999954223633</v>
+        <v>545.6500244140625</v>
       </c>
       <c r="G42">
-        <v>22.81999969482422</v>
+        <v>448.1099853515625</v>
       </c>
       <c r="H42">
-        <v>134349704</v>
+        <v>185748673</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>81227883381</v>
@@ -5957,22 +5852,22 @@
         <v>45777</v>
       </c>
       <c r="D43">
-        <v>160.2100067138672</v>
+        <v>462.4700012207031</v>
       </c>
       <c r="E43">
-        <v>168.3200073242188</v>
+        <v>463.9800109863281</v>
       </c>
       <c r="F43">
-        <v>174.2599945068359</v>
+        <v>521.0999755859375</v>
       </c>
       <c r="G43">
-        <v>151.6699981689453</v>
+        <v>437.6900024414063</v>
       </c>
       <c r="H43">
-        <v>119792704</v>
+        <v>185748673</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>70972161085</v>
@@ -6085,22 +5980,22 @@
         <v>45869</v>
       </c>
       <c r="D44">
-        <v>77.06999969482422</v>
+        <v>617.5499877929688</v>
       </c>
       <c r="E44">
-        <v>62.86999893188477</v>
+        <v>603.52001953125</v>
       </c>
       <c r="F44">
-        <v>80.05999755859375</v>
+        <v>636.6099853515625</v>
       </c>
       <c r="G44">
-        <v>62.61999893188477</v>
+        <v>593</v>
       </c>
       <c r="H44">
-        <v>862100000</v>
+        <v>185748673</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>98289799395</v>
